--- a/barcodeprint/result_.xlsx
+++ b/barcodeprint/result_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29010" windowHeight="13185"/>
+    <workbookView windowWidth="15225" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>仓号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>箱号</t>
   </si>
   <si>
+    <t>container_number</t>
+  </si>
+  <si>
     <t>sku</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>交货 ID</t>
   </si>
   <si>
-    <t>货位 ID</t>
+    <t>location_id</t>
   </si>
   <si>
     <t>箱唛</t>
@@ -1279,22 +1282,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,13 +1334,16 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1345,104 +1351,113 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>150</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5.45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11.9</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
         <v>150</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.9</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
       </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>11.9</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
-        <v>23</v>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1450,34 +1465,37 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
         <v>140</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.75</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12.7777777777778</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
       </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1485,26 +1503,29 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10.9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>24.2222222222222</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
